--- a/biology/Zoologie/Fejervarya_cancrivora/Fejervarya_cancrivora.xlsx
+++ b/biology/Zoologie/Fejervarya_cancrivora/Fejervarya_cancrivora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya cancrivora est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya cancrivora est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Malaisie occidentale et orientale ;
 à Singapour ;
 au Brunei ;
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inféodée aux régions côtières et c'est l'un des très rares lissamphibiens à pouvoir tolérer l'eau salée; elle est considérée comme l'amphibien le plus halotolérant[2]. Elle peut tolérer les milieux marins (immersion dans l'eau de mer pendant de brèves périodes ou l'eau saumâtre durant une longue période) en adaptant sa régulation osmotique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inféodée aux régions côtières et c'est l'un des très rares lissamphibiens à pouvoir tolérer l'eau salée; elle est considérée comme l'amphibien le plus halotolérant. Elle peut tolérer les milieux marins (immersion dans l'eau de mer pendant de brèves périodes ou l'eau saumâtre durant une longue période) en adaptant sa régulation osmotique.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya cancrivora mesure jusqu'à 68,2 mm[4]. Son dos est brun-gris avec des marques sombres[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya cancrivora mesure jusqu'à 68,2 mm. Son dos est brun-gris avec des marques sombres.
 On la trouve notamment dans les mangroves où elle consomme des crabes.
 </t>
         </is>
@@ -608,7 +626,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Par le passé de nombreuses populations ont été considérés comme appartenant à cette espèce :
 celles de Thaïlande, de Birmanie, d'Inde, du Cambodge, du Laos, de Viêt Nam, des Philippines et du Sud de la Chine sont en fait Fejervarya moodiei ;
@@ -641,7 +661,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui vient de son régime alimentaire comportant des crabes (cancri = crabe ; voro = manger).
 </t>
@@ -672,9 +694,11 @@
           <t>Consommation humaine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'Asie du Sud-Est, cet amphibien est chassé localement comme nourriture et il est souvent élevé pour ses pattes, notamment à Java en Indonésie[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Asie du Sud-Est, cet amphibien est chassé localement comme nourriture et il est souvent élevé pour ses pattes, notamment à Java en Indonésie.
 </t>
         </is>
       </c>
@@ -703,7 +727,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gravenhorst, 1829 : Deliciae Musei Zoologici Vratislaviensis (Reptilia Musei Zoologici Vratislaviensis. Recensita et Descripta). Fasciculus Primus, continens Chelonions et Batrachia: I-XIV. Leopold Voss, Leipzig (texte intégral).</t>
         </is>
